--- a/po_analysis_by_asin/B083R7ST5T_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7ST5T_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,105 +452,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B14" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>140</v>
       </c>
     </row>
@@ -565,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,33 +659,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>570</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>205</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>140</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083R7ST5T_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7ST5T_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -653,7 +654,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,467 @@
       </c>
       <c r="B8" t="n">
         <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-51.25743914976111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.84945949667423</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-49.17850245682017</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.61616259034845</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-41.13949474977947</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.1884317155405</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-40.39006702180588</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.62674818870795</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-36.37979099221545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88.61641505075227</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-37.50284701764343</v>
+      </c>
+      <c r="D7" t="n">
+        <v>97.24734838650484</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-35.42501021388281</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.48199375766403</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-26.58237071831785</v>
+      </c>
+      <c r="D9" t="n">
+        <v>104.6775882773263</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-27.14292373018342</v>
+      </c>
+      <c r="D10" t="n">
+        <v>105.8915463863712</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.95032034391331</v>
+      </c>
+      <c r="D11" t="n">
+        <v>116.6961991486043</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.280106421401367</v>
+      </c>
+      <c r="D12" t="n">
+        <v>119.0467902105745</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>58</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.139033554108234</v>
+      </c>
+      <c r="D13" t="n">
+        <v>123.9211580615265</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.502139977636888</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128.7213909221734</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.14681333804679</v>
+      </c>
+      <c r="D15" t="n">
+        <v>124.1145285553032</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>69</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.911490013982237</v>
+      </c>
+      <c r="D16" t="n">
+        <v>131.1764577572008</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>76</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.22482532612706</v>
+      </c>
+      <c r="D17" t="n">
+        <v>140.1278424529657</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16.16933101269774</v>
+      </c>
+      <c r="D18" t="n">
+        <v>150.6376800475585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>83</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.49306164243663</v>
+      </c>
+      <c r="D19" t="n">
+        <v>144.0043814010525</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>87</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26.4688450724131</v>
+      </c>
+      <c r="D20" t="n">
+        <v>151.1786457192764</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.24958360512926</v>
+      </c>
+      <c r="D21" t="n">
+        <v>157.5783486763225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>94</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29.8744125593049</v>
+      </c>
+      <c r="D22" t="n">
+        <v>155.5043041826632</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>98</v>
+      </c>
+      <c r="C23" t="n">
+        <v>29.77614212602116</v>
+      </c>
+      <c r="D23" t="n">
+        <v>161.4804639156925</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>101</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37.72627230486385</v>
+      </c>
+      <c r="D24" t="n">
+        <v>164.7345353211838</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>105</v>
+      </c>
+      <c r="C25" t="n">
+        <v>41.34721860925497</v>
+      </c>
+      <c r="D25" t="n">
+        <v>170.7454049881684</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>44.06891335345532</v>
+      </c>
+      <c r="D26" t="n">
+        <v>171.4899362316622</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>47.31501243781745</v>
+      </c>
+      <c r="D27" t="n">
+        <v>175.4199129518484</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>116</v>
+      </c>
+      <c r="C28" t="n">
+        <v>54.66428146169666</v>
+      </c>
+      <c r="D28" t="n">
+        <v>180.8851488810431</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>119</v>
+      </c>
+      <c r="C29" t="n">
+        <v>53.33624083628821</v>
+      </c>
+      <c r="D29" t="n">
+        <v>184.639700921706</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>123</v>
+      </c>
+      <c r="C30" t="n">
+        <v>61.25846614650099</v>
+      </c>
+      <c r="D30" t="n">
+        <v>185.7807423458581</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>127</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63.09146937344524</v>
+      </c>
+      <c r="D31" t="n">
+        <v>191.0749146290811</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083R7ST5T_po_data.xlsx
+++ b/po_analysis_by_asin/B083R7ST5T_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
-        <v>-51.25743914976111</v>
-      </c>
-      <c r="D2" t="n">
-        <v>74.84945949667423</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>-49.17850245682017</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.61616259034845</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
-        <v>-41.13949474977947</v>
-      </c>
-      <c r="D4" t="n">
-        <v>83.1884317155405</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>22</v>
       </c>
-      <c r="C5" t="n">
-        <v>-40.39006702180588</v>
-      </c>
-      <c r="D5" t="n">
-        <v>81.62674818870795</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>26</v>
       </c>
-      <c r="C6" t="n">
-        <v>-36.37979099221545</v>
-      </c>
-      <c r="D6" t="n">
-        <v>88.61641505075227</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>30</v>
       </c>
-      <c r="C7" t="n">
-        <v>-37.50284701764343</v>
-      </c>
-      <c r="D7" t="n">
-        <v>97.24734838650484</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>33</v>
       </c>
-      <c r="C8" t="n">
-        <v>-35.42501021388281</v>
-      </c>
-      <c r="D8" t="n">
-        <v>95.48199375766403</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>37</v>
       </c>
-      <c r="C9" t="n">
-        <v>-26.58237071831785</v>
-      </c>
-      <c r="D9" t="n">
-        <v>104.6775882773263</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>40</v>
       </c>
-      <c r="C10" t="n">
-        <v>-27.14292373018342</v>
-      </c>
-      <c r="D10" t="n">
-        <v>105.8915463863712</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>51</v>
       </c>
-      <c r="C11" t="n">
-        <v>-11.95032034391331</v>
-      </c>
-      <c r="D11" t="n">
-        <v>116.6961991486043</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.280106421401367</v>
-      </c>
-      <c r="D12" t="n">
-        <v>119.0467902105745</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>58</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.139033554108234</v>
-      </c>
-      <c r="D13" t="n">
-        <v>123.9211580615265</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>62</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.502139977636888</v>
-      </c>
-      <c r="D14" t="n">
-        <v>128.7213909221734</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>66</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.14681333804679</v>
-      </c>
-      <c r="D15" t="n">
-        <v>124.1145285553032</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>69</v>
       </c>
-      <c r="C16" t="n">
-        <v>2.911490013982237</v>
-      </c>
-      <c r="D16" t="n">
-        <v>131.1764577572008</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>76</v>
       </c>
-      <c r="C17" t="n">
-        <v>11.22482532612706</v>
-      </c>
-      <c r="D17" t="n">
-        <v>140.1278424529657</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>80</v>
       </c>
-      <c r="C18" t="n">
-        <v>16.16933101269774</v>
-      </c>
-      <c r="D18" t="n">
-        <v>150.6376800475585</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>83</v>
       </c>
-      <c r="C19" t="n">
-        <v>18.49306164243663</v>
-      </c>
-      <c r="D19" t="n">
-        <v>144.0043814010525</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>87</v>
       </c>
-      <c r="C20" t="n">
-        <v>26.4688450724131</v>
-      </c>
-      <c r="D20" t="n">
-        <v>151.1786457192764</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>91</v>
       </c>
-      <c r="C21" t="n">
-        <v>30.24958360512926</v>
-      </c>
-      <c r="D21" t="n">
-        <v>157.5783486763225</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>94</v>
       </c>
-      <c r="C22" t="n">
-        <v>29.8744125593049</v>
-      </c>
-      <c r="D22" t="n">
-        <v>155.5043041826632</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>98</v>
       </c>
-      <c r="C23" t="n">
-        <v>29.77614212602116</v>
-      </c>
-      <c r="D23" t="n">
-        <v>161.4804639156925</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>101</v>
       </c>
-      <c r="C24" t="n">
-        <v>37.72627230486385</v>
-      </c>
-      <c r="D24" t="n">
-        <v>164.7345353211838</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>105</v>
       </c>
-      <c r="C25" t="n">
-        <v>41.34721860925497</v>
-      </c>
-      <c r="D25" t="n">
-        <v>170.7454049881684</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>109</v>
       </c>
-      <c r="C26" t="n">
-        <v>44.06891335345532</v>
-      </c>
-      <c r="D26" t="n">
-        <v>171.4899362316622</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>112</v>
       </c>
-      <c r="C27" t="n">
-        <v>47.31501243781745</v>
-      </c>
-      <c r="D27" t="n">
-        <v>175.4199129518484</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1126,12 +960,6 @@
       <c r="B28" t="n">
         <v>116</v>
       </c>
-      <c r="C28" t="n">
-        <v>54.66428146169666</v>
-      </c>
-      <c r="D28" t="n">
-        <v>180.8851488810431</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1140,12 +968,6 @@
       <c r="B29" t="n">
         <v>119</v>
       </c>
-      <c r="C29" t="n">
-        <v>53.33624083628821</v>
-      </c>
-      <c r="D29" t="n">
-        <v>184.639700921706</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1154,12 +976,6 @@
       <c r="B30" t="n">
         <v>123</v>
       </c>
-      <c r="C30" t="n">
-        <v>61.25846614650099</v>
-      </c>
-      <c r="D30" t="n">
-        <v>185.7807423458581</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1167,12 +983,6 @@
       </c>
       <c r="B31" t="n">
         <v>127</v>
-      </c>
-      <c r="C31" t="n">
-        <v>63.09146937344524</v>
-      </c>
-      <c r="D31" t="n">
-        <v>191.0749146290811</v>
       </c>
     </row>
   </sheetData>
